--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1780.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1780.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8918120889028117</v>
+        <v>0.7291535139083862</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.389246940612793</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.426088809967041</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.831549644470215</v>
       </c>
       <c r="E1">
-        <v>1.197738155068402</v>
+        <v>1.081552624702454</v>
       </c>
     </row>
   </sheetData>
